--- a/Project/saudi_pro_league_transfers_2024.XLSX
+++ b/Project/saudi_pro_league_transfers_2024.XLSX
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\challenge\Week 3 challenge\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\challenge\Week 3 challenge\saudi_pro_league_transfers_2024\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9279AE8-6D9A-4323-8AE4-1BD305E8A6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D069CD-12F8-48B8-8669-5EE40A38B771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="438">
   <si>
     <t>club_name</t>
   </si>
@@ -1348,6 +1347,9 @@
   </si>
   <si>
     <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Watford U21</t>
   </si>
 </sst>
 </file>
@@ -1971,9 +1973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5409,7 +5411,7 @@
         <v>422</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>43</v>
+        <v>437</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>18</v>
@@ -8839,23 +8841,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6E55EE-2878-4D60-A80B-23CD3994443F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>